--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 GE.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 GE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>Course</t>
   </si>
@@ -85,24 +85,9 @@
     <t>ATMO-629</t>
   </si>
   <si>
-    <t>TOTAL S</t>
-  </si>
-  <si>
     <t>NORTH J</t>
   </si>
   <si>
-    <t>COLLEGE O</t>
-  </si>
-  <si>
-    <t>TEXAS A</t>
-  </si>
-  <si>
-    <t>GEOSCIENCES D</t>
-  </si>
-  <si>
-    <t>ATMOSPHERIC S</t>
-  </si>
-  <si>
     <t>GEOG-202</t>
   </si>
   <si>
@@ -133,112 +118,145 @@
     <t>GEOG-390</t>
   </si>
   <si>
+    <t>EVANS A</t>
+  </si>
+  <si>
+    <t>27.78%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
     <t>22.22%</t>
   </si>
   <si>
-    <t>61.11%</t>
+    <t>GEOG-450</t>
+  </si>
+  <si>
+    <t>PROUT E</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
+    <t>25.00%</t>
+  </si>
+  <si>
+    <t>BRANNSTROM C</t>
+  </si>
+  <si>
+    <t>GEOL-101</t>
+  </si>
+  <si>
+    <t>JOHNSON H</t>
+  </si>
+  <si>
+    <t>23.40%</t>
+  </si>
+  <si>
+    <t>51.06%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>6.38%</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>GEOL-300</t>
+  </si>
+  <si>
+    <t>OLSZEWSKI T</t>
+  </si>
+  <si>
+    <t>10.53%</t>
+  </si>
+  <si>
+    <t>63.16%</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>5.26%</t>
+  </si>
+  <si>
+    <t>MILLER B</t>
+  </si>
+  <si>
+    <t>65.00%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>HEANEY M</t>
+  </si>
+  <si>
+    <t>41.18%</t>
+  </si>
+  <si>
+    <t>58.82%</t>
+  </si>
+  <si>
+    <t>KRONENBERG A</t>
+  </si>
+  <si>
+    <t>46.67%</t>
+  </si>
+  <si>
+    <t>53.33%</t>
+  </si>
+  <si>
+    <t>GEOL-306</t>
+  </si>
+  <si>
+    <t>TICE M</t>
+  </si>
+  <si>
+    <t>96.30%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>GEOL-311</t>
+  </si>
+  <si>
+    <t>MARCANTONIO F</t>
+  </si>
+  <si>
+    <t>84.21%</t>
+  </si>
+  <si>
+    <t>13.16%</t>
+  </si>
+  <si>
+    <t>2.63%</t>
+  </si>
+  <si>
+    <t>GEOL-491</t>
+  </si>
+  <si>
+    <t>POPE M</t>
+  </si>
+  <si>
+    <t>LAYA P</t>
+  </si>
+  <si>
+    <t>GEOS-210</t>
+  </si>
+  <si>
+    <t>DESSLER A</t>
+  </si>
+  <si>
+    <t>8.33%</t>
   </si>
   <si>
     <t>16.67%</t>
-  </si>
-  <si>
-    <t>EVANS A</t>
-  </si>
-  <si>
-    <t>27.78%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>GEOL-101</t>
-  </si>
-  <si>
-    <t>JOHNSON H</t>
-  </si>
-  <si>
-    <t>23.40%</t>
-  </si>
-  <si>
-    <t>51.06%</t>
-  </si>
-  <si>
-    <t>17.02%</t>
-  </si>
-  <si>
-    <t>6.38%</t>
-  </si>
-  <si>
-    <t>2.13%</t>
-  </si>
-  <si>
-    <t>GEOL-300</t>
-  </si>
-  <si>
-    <t>MILLER B</t>
-  </si>
-  <si>
-    <t>25.00%</t>
-  </si>
-  <si>
-    <t>65.00%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>HEANEY M</t>
-  </si>
-  <si>
-    <t>41.18%</t>
-  </si>
-  <si>
-    <t>58.82%</t>
-  </si>
-  <si>
-    <t>KRONENBERG A</t>
-  </si>
-  <si>
-    <t>46.67%</t>
-  </si>
-  <si>
-    <t>53.33%</t>
-  </si>
-  <si>
-    <t>OLSZEWSKI T</t>
-  </si>
-  <si>
-    <t>10.53%</t>
-  </si>
-  <si>
-    <t>63.16%</t>
-  </si>
-  <si>
-    <t>21.05%</t>
-  </si>
-  <si>
-    <t>5.26%</t>
-  </si>
-  <si>
-    <t>GEOL-491</t>
-  </si>
-  <si>
-    <t>DEPARTMENT T</t>
-  </si>
-  <si>
-    <t>LAYA P</t>
-  </si>
-  <si>
-    <t>POPE M</t>
-  </si>
-  <si>
-    <t>GEOS-210</t>
-  </si>
-  <si>
-    <t>8.33%</t>
-  </si>
-  <si>
-    <t>DESSLER A</t>
   </si>
   <si>
     <t>OCNG-252</t>
@@ -593,7 +611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,365 +752,283 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="n">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.827</v>
-      </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
+      <c r="A25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" t="n">
-        <v>3.056</v>
+        <v>2.8587</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3.056</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
-        <v>45</v>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C30" t="n">
-        <v>2.8587</v>
+        <v>3.15</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.412</v>
+      </c>
+      <c r="D31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.467</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="n">
-        <v>3.412</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" t="s">
-        <v>59</v>
-      </c>
-      <c r="F34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
+      <c r="A34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C35" t="n">
-        <v>3.467</v>
+        <v>3.778</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
@@ -1101,86 +1037,45 @@
         <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="B36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="n">
-        <v>2.737</v>
-      </c>
-      <c r="D36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="B39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H38" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="B40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
+      <c r="A40" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="B41" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
@@ -1203,7 +1098,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="B42" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
@@ -1224,198 +1119,60 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="44" spans="1:8">
-      <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>72</v>
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="B47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" t="s">
-        <v>13</v>
+      <c r="A47" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C48" t="n">
-        <v>2.833</v>
+        <v>3.364</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="B49" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" t="s">
-        <v>54</v>
-      </c>
-      <c r="H49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>54</v>
-      </c>
-      <c r="H50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.833</v>
-      </c>
-      <c r="D51" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" t="s">
-        <v>73</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" t="s">
-        <v>54</v>
-      </c>
-      <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="B54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D54" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 GE.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 GE.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>ATMO-201</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t>1.83%</t>
   </si>
   <si>
+    <t>1.80%</t>
+  </si>
+  <si>
     <t>ATMO-491</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>0.79%</t>
   </si>
   <si>
+    <t>0.78%</t>
+  </si>
+  <si>
     <t>GEOG-380</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>22.22%</t>
   </si>
   <si>
+    <t>2.70%</t>
+  </si>
+  <si>
     <t>GEOG-450</t>
   </si>
   <si>
@@ -166,6 +178,9 @@
     <t>2.13%</t>
   </si>
   <si>
+    <t>2.08%</t>
+  </si>
+  <si>
     <t>GEOL-300</t>
   </si>
   <si>
@@ -223,6 +238,9 @@
     <t>3.70%</t>
   </si>
   <si>
+    <t>3.57%</t>
+  </si>
+  <si>
     <t>GEOL-311</t>
   </si>
   <si>
@@ -244,6 +262,9 @@
     <t>POPE M</t>
   </si>
   <si>
+    <t>3.23%</t>
+  </si>
+  <si>
     <t>LAYA P</t>
   </si>
   <si>
@@ -257,6 +278,9 @@
   </si>
   <si>
     <t>16.67%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
   </si>
   <si>
     <t>OCNG-252</t>
@@ -312,12 +336,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -611,15 +634,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,535 +667,598 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.562</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>3.128</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
         <v>2.827</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="n">
         <v>3.056</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C22" t="n">
         <v>3.75</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="B26" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C26" t="n">
         <v>2.8587</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="B29" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C29" t="n">
         <v>2.737</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>3.15</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
         <v>3.412</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="B32" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C32" t="n">
         <v>3.467</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="B35" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C35" t="n">
         <v>3.778</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C38" t="n">
         <v>3.79</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C41" t="n">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C42" t="n">
         <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C45" t="n">
         <v>2.833</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C48" t="n">
         <v>3.364</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s">
-        <v>86</v>
+        <v>94</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
